--- a/pred_ohlcv/54_21/2019-10-24 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 ENJ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>102378.5412</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -938,7 +938,7 @@
         <v>153477.7712188059</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>156657.7712188059</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>323493.263618806</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>314607.263618806</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>315457.263618806</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>315457.263618806</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>315457.263618806</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>313656.263718806</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>313656.263718806</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>313391.891518806</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>313391.891518806</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>305801.891518806</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>397853.605818806</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>397793.850118806</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>396587.133718806</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>396587.133718806</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>393586.946718806</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>405505.646718806</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>405004.245518806</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>405004.245518806</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>405004.245518806</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>403504.245518806</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>403504.245518806</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>403504.245518806</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>402214.245518806</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>418580.941618806</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>402214.245518806</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>393894.245518806</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>396117.245518806</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>397745.245518806</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>401244.524918806</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>368628.524918806</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>368628.524918806</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>368628.524918806</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>399125.014618806</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>392065.319818806</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>392635.319818806</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>392635.319818806</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>389307.525018806</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>376847.525018806</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>376847.525018806</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>376923.061018806</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>377128.068518806</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>376918.593018806</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>377025.394718806</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>361050.594918806</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>359784.115718806</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>341757.116718806</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>361338.2532188061</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>367686.6703188061</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>360176.9110188061</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>259312.9313188062</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>265098.8376188062</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>270408.8376188062</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>273186.3334188063</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>93899.19571880632</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>94768.19571880632</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-24 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 ENJ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>102378.5412</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -964,7 +964,7 @@
         <v>156657.7712188059</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>323493.263618806</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>314607.263618806</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>315457.263618806</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>315457.263618806</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>315457.263618806</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>313656.263718806</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>313656.263718806</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>313391.891518806</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>313391.891518806</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>305801.891518806</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>397853.605818806</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>397793.850118806</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>396587.133718806</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>396587.133718806</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>398196.388218806</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>398206.388218806</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>393576.946718806</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>393586.946718806</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>405505.646718806</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>405004.245518806</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>405004.245518806</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>405004.245518806</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>403504.245518806</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>403504.245518806</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>403504.245518806</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>402214.245518806</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>418580.941618806</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>402214.245518806</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>393894.245518806</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>396117.245518806</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>397745.245518806</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>401244.524918806</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>368628.524918806</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>368628.524918806</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>368628.524918806</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>399125.014618806</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>392065.319818806</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>392635.319818806</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>392635.319818806</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>389307.525018806</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>376847.525018806</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>376847.525018806</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>376923.061018806</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>377128.068518806</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>376918.593018806</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>377025.394718806</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>361050.594918806</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>359784.115718806</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>367686.6703188061</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>360176.9110188061</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>259312.9313188062</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>265098.8376188062</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>270408.8376188062</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>273186.3334188063</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>93899.19571880632</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>94768.19571880632</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
